--- a/biology/Botanique/Tabernaemontana_contorta/Tabernaemontana_contorta.xlsx
+++ b/biology/Botanique/Tabernaemontana_contorta/Tabernaemontana_contorta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tabernaemontana contorta Stapf – connue sous le nom de libon lingui en langue bassa[2] – est une espèce de plantes à fleurs dicotylédones[3],[4] de la famille des Apocynaceae, du genre Tabernaemontana[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tabernaemontana contorta Stapf – connue sous le nom de libon lingui en langue bassa – est une espèce de plantes à fleurs dicotylédones, de la famille des Apocynaceae, du genre Tabernaemontana.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, elle a été collectée notamment dans les lieux suivants : à la baie d'Ambas, près de Limbé (Gustav Mann, 1861[6]) ; à la station Johann-Albrechtshöhe à Kumba (Alois Staudt, 1897[7]) ; en bordure du marigot Olezoa, près de Melen, dans la subdivision de Yaoundé (Benoît Mpom, 1953[8]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, elle a été collectée notamment dans les lieux suivants : à la baie d'Ambas, près de Limbé (Gustav Mann, 1861) ; à la station Johann-Albrechtshöhe à Kumba (Alois Staudt, 1897) ; en bordure du marigot Olezoa, près de Melen, dans la subdivision de Yaoundé (Benoît Mpom, 1953).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante médicinale[9], aux vertus antiseptiques et cicatrisantes. Des recherches sont en cours pour déterminer une utilisation possible dans le cadre de la lutte contre le cancer[10]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante médicinale, aux vertus antiseptiques et cicatrisantes. Des recherches sont en cours pour déterminer une utilisation possible dans le cadre de la lutte contre le cancer
 </t>
         </is>
       </c>
